--- a/BackTest/2019-11-21 BackTest REP.xlsx
+++ b/BackTest/2019-11-21 BackTest REP.xlsx
@@ -451,20 +451,14 @@
         <v>13840</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>13770</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>13835</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>13760</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>13835</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>13830</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>13840</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>13830</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>13840</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>13840</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>13835</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>13830</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>13795</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>13760</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>13795</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>13830</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>13835</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>13845</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>13845</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>13790</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>13840</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>13850</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>13830</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>13855</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>13900</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>13875</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>13900</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>13925</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>13950</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>13875</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>13910</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>13890</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>13950</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>13980</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>13990</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1278,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1317,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1356,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1395,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1434,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1473,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1512,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1551,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1590,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1629,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1668,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1707,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1746,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1785,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1824,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1863,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1902,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1941,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1976,16 +1784,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2013,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2048,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2118,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2153,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5125,20 +4931,14 @@
         <v>13785</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>13770</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5166,20 +4966,14 @@
         <v>13800</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>13810</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5207,20 +5001,14 @@
         <v>13795</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>13780</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5248,20 +5036,14 @@
         <v>13750</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>13780</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5289,20 +5071,14 @@
         <v>13700</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>13790</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5330,20 +5106,14 @@
         <v>13735</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>13760</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5371,20 +5141,14 @@
         <v>13760</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5412,20 +5176,14 @@
         <v>13770</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>13850</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5453,20 +5211,14 @@
         <v>13780</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>13810</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5494,20 +5246,14 @@
         <v>13790</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>13780</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5535,20 +5281,14 @@
         <v>13875</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>13940</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5576,20 +5316,14 @@
         <v>13905</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>13870</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5617,20 +5351,14 @@
         <v>13895</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>13920</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5658,20 +5386,14 @@
         <v>13790</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>13920</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5706,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5738,20 +5456,14 @@
         <v>13875</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>13770</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5779,20 +5491,14 @@
         <v>13875</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>13880</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5820,20 +5526,14 @@
         <v>13875</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>13870</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5861,20 +5561,14 @@
         <v>13875</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>13890</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5902,20 +5596,14 @@
         <v>13880</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>13880</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5950,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5989,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6067,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6145,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6177,20 +5841,14 @@
         <v>13910</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>13670</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6218,20 +5876,14 @@
         <v>14030</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>13990</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6259,20 +5911,14 @@
         <v>14005</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>14120</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6307,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6346,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6385,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6463,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6502,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6580,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6619,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6658,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6697,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6736,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6775,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6814,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6892,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6931,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6970,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7009,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7048,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7087,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7126,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7165,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7204,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7243,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7321,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7360,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7399,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7477,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7516,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7555,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7594,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7633,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7672,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7750,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7789,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7828,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7867,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7906,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7984,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8023,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8062,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8101,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8179,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8218,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8257,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8296,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8335,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8413,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8452,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8491,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8530,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8608,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8647,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8686,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8725,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8764,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8803,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8842,11 +8228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +8263,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8920,11 +8298,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8959,11 +8333,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +8368,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9037,11 +8403,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9076,11 +8438,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9115,11 +8473,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9154,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9193,11 +8543,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9232,11 +8578,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9271,11 +8613,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9310,11 +8648,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9349,11 +8683,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9388,11 +8718,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +8753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9466,11 +8788,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9505,11 +8823,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9544,11 +8858,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9583,11 +8893,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9622,11 +8928,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9661,11 +8963,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9700,11 +8998,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9739,11 +9033,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9778,11 +9068,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9817,11 +9103,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9138,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9895,11 +9173,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9934,11 +9208,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9973,11 +9243,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10012,11 +9278,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10051,11 +9313,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10090,11 +9348,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10129,11 +9383,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10168,11 +9418,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10207,11 +9453,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10246,11 +9488,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +9523,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10324,11 +9558,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10363,11 +9593,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10402,11 +9628,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10441,11 +9663,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10480,11 +9698,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10519,11 +9733,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10558,11 +9768,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10597,11 +9803,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10636,11 +9838,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10675,11 +9873,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +9908,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10753,11 +9943,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10792,11 +9978,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10831,11 +10013,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10870,11 +10048,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10909,11 +10083,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10948,11 +10118,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10987,11 +10153,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11026,11 +10188,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11065,11 +10223,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11104,11 +10258,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +10293,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11182,11 +10328,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11221,11 +10363,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11260,11 +10398,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11299,11 +10433,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11338,11 +10468,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11377,11 +10503,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11416,11 +10538,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11455,11 +10573,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11494,11 +10608,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11533,11 +10643,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +10678,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11611,11 +10713,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11650,11 +10748,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11689,11 +10783,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11728,11 +10818,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11767,11 +10853,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11806,11 +10888,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11845,11 +10923,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11884,11 +10958,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11923,11 +10993,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11962,11 +11028,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +11063,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12040,11 +11098,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12079,11 +11133,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12118,11 +11168,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12157,11 +11203,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12196,11 +11238,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12235,11 +11273,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12274,11 +11308,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12313,11 +11343,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12352,11 +11378,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12391,11 +11413,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +11448,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12469,11 +11483,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12508,11 +11518,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12547,11 +11553,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12586,11 +11588,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12625,11 +11623,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12664,11 +11658,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12703,11 +11693,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12742,11 +11728,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12781,11 +11763,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12820,11 +11798,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +11833,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12898,11 +11868,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12937,11 +11903,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12976,11 +11938,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13015,11 +11973,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13054,11 +12008,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13093,11 +12043,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13132,11 +12078,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13171,11 +12113,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13210,11 +12148,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13249,11 +12183,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +12218,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13327,11 +12253,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13366,11 +12288,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13405,11 +12323,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13444,11 +12358,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13483,11 +12393,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13522,11 +12428,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13561,11 +12463,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13600,11 +12498,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13639,11 +12533,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13678,11 +12568,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +12603,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13756,11 +12638,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13795,11 +12673,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13834,11 +12708,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13873,11 +12743,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13912,11 +12778,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13951,11 +12813,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13990,11 +12848,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14029,11 +12883,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14068,11 +12918,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14107,11 +12953,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +12988,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14185,11 +13023,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14224,11 +13058,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14263,11 +13093,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14302,11 +13128,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14341,11 +13163,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14380,11 +13198,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14419,11 +13233,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14458,11 +13268,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14497,11 +13303,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14536,11 +13338,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +13373,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14614,11 +13408,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14653,11 +13443,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14692,11 +13478,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14731,11 +13513,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14770,11 +13548,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14809,11 +13583,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14848,11 +13618,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14887,11 +13653,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14926,11 +13688,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14965,11 +13723,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +13758,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15043,11 +13793,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15082,11 +13828,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15121,11 +13863,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15160,11 +13898,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15199,11 +13933,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +13968,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15277,11 +14003,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15316,11 +14038,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15355,11 +14073,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15394,11 +14108,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +14143,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15472,11 +14178,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15511,11 +14213,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15550,11 +14248,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15589,11 +14283,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15628,11 +14318,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15667,11 +14353,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15706,11 +14388,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15745,11 +14423,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15784,11 +14458,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15823,11 +14493,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +14528,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15901,11 +14563,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15940,11 +14598,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15979,11 +14633,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16018,11 +14668,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16057,11 +14703,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16096,11 +14738,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16135,11 +14773,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16174,11 +14808,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16213,11 +14843,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16252,11 +14878,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +14913,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16330,11 +14948,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16369,11 +14983,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16408,11 +15018,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16447,11 +15053,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16486,11 +15088,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16525,11 +15123,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16564,11 +15158,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16596,20 +15186,14 @@
         <v>13715</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>13720</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16637,20 +15221,14 @@
         <v>13780</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16678,20 +15256,14 @@
         <v>13840</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>13710</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16719,20 +15291,14 @@
         <v>13840</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16760,20 +15326,14 @@
         <v>13835</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16801,20 +15361,14 @@
         <v>13770</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>13710</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16842,20 +15396,14 @@
         <v>13770</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>13710</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16883,20 +15431,14 @@
         <v>13780</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>13730</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16924,20 +15466,14 @@
         <v>13775</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16965,20 +15501,14 @@
         <v>13820</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17006,20 +15536,14 @@
         <v>13830</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17047,20 +15571,14 @@
         <v>13795</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17088,20 +15606,14 @@
         <v>13745</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>13740</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17129,20 +15641,14 @@
         <v>13730</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>13740</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17170,20 +15676,14 @@
         <v>13765</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>13810</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17211,20 +15711,14 @@
         <v>13810</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>13810</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17252,20 +15746,14 @@
         <v>13820</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>13810</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17293,20 +15781,14 @@
         <v>13835</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17334,20 +15816,14 @@
         <v>13845</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>13850</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17375,20 +15851,14 @@
         <v>13850</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>13760</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17416,20 +15886,14 @@
         <v>13800</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>13770</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17457,20 +15921,14 @@
         <v>13750</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>13750</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17498,20 +15956,14 @@
         <v>13740</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>13730</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17539,20 +15991,14 @@
         <v>13730</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>13730</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17580,20 +16026,14 @@
         <v>13775</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>13750</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17621,20 +16061,14 @@
         <v>13780</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>13750</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17662,20 +16096,14 @@
         <v>13725</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>13740</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17703,20 +16131,14 @@
         <v>13765</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17744,20 +16166,14 @@
         <v>13820</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>13830</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17785,20 +16201,14 @@
         <v>13820</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17826,20 +16236,14 @@
         <v>13825</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17867,20 +16271,14 @@
         <v>13830</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>13830</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17908,20 +16306,14 @@
         <v>13835</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>13840</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17949,20 +16341,14 @@
         <v>13845</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>13850</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17990,20 +16376,14 @@
         <v>13850</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>13850</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -18031,20 +16411,14 @@
         <v>13805</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>13760</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -18072,20 +16446,14 @@
         <v>13760</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>13760</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -18113,20 +16481,14 @@
         <v>13790</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -18154,20 +16516,14 @@
         <v>13795</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>13770</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18195,20 +16551,14 @@
         <v>13765</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>13770</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18236,20 +16586,14 @@
         <v>13785</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>13810</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18277,20 +16621,14 @@
         <v>13810</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>13810</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18318,20 +16656,14 @@
         <v>13815</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18359,20 +16691,14 @@
         <v>13820</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18400,20 +16726,14 @@
         <v>13820</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>13820</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18441,20 +16761,14 @@
         <v>13835</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>13850</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18482,20 +16796,14 @@
         <v>13850</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>13850</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18523,20 +16831,14 @@
         <v>13830</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>13810</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18564,20 +16866,14 @@
         <v>13865</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>13920</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18605,20 +16901,14 @@
         <v>13925</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>13930</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18646,20 +16936,14 @@
         <v>13965</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>13990</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18687,20 +16971,14 @@
         <v>13995</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>14000</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18735,11 +17013,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18774,11 +17048,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18813,11 +17083,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18852,11 +17118,7 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18891,11 +17153,7 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18930,11 +17188,7 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18969,11 +17223,7 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -19008,11 +17258,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -19047,11 +17293,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -19086,11 +17328,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -19125,11 +17363,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -19164,11 +17398,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -19203,11 +17433,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -19242,11 +17468,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -19281,11 +17503,7 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -19320,11 +17538,7 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -19359,11 +17573,7 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19398,11 +17608,7 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19437,11 +17643,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19476,11 +17678,7 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19515,11 +17713,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19554,11 +17748,7 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19593,11 +17783,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19632,11 +17818,7 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19671,11 +17853,7 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19710,11 +17888,7 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19749,11 +17923,7 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19788,11 +17958,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19827,11 +17993,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19866,11 +18028,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19905,11 +18063,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19944,11 +18098,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19983,11 +18133,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -20022,11 +18168,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -20061,11 +18203,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -20100,11 +18238,7 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -20139,11 +18273,7 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -20178,11 +18308,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -20217,11 +18343,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -20256,11 +18378,7 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -20295,11 +18413,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -20334,11 +18448,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -20373,11 +18483,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -20412,11 +18518,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -20451,11 +18553,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20490,11 +18588,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20529,11 +18623,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20568,11 +18658,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20607,11 +18693,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20646,11 +18728,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20685,11 +18763,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20724,11 +18798,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20763,11 +18833,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20802,11 +18868,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20841,11 +18903,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20880,11 +18938,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20919,11 +18973,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20958,11 +19008,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20997,11 +19043,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -21036,11 +19078,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -21075,11 +19113,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -21114,11 +19148,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -21153,11 +19183,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -21192,11 +19218,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -21231,11 +19253,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -21270,11 +19288,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -21309,11 +19323,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -21348,11 +19358,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -21387,11 +19393,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -21426,11 +19428,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -21465,11 +19463,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -21504,11 +19498,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21543,11 +19533,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21582,11 +19568,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21621,11 +19603,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21660,11 +19638,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21699,11 +19673,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21738,11 +19708,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21777,11 +19743,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21816,11 +19778,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21855,11 +19813,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21894,11 +19848,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21933,11 +19883,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21972,11 +19918,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -22011,11 +19953,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -22050,11 +19988,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -22089,11 +20023,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -22128,11 +20058,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -22163,16 +20089,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
+      <c r="M563" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -22200,7 +20124,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
@@ -25137,13 +23061,17 @@
         <v>13710</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>13710</v>
+      </c>
+      <c r="K648" t="n">
+        <v>13710</v>
+      </c>
       <c r="L648" t="inlineStr"/>
       <c r="M648" t="n">
         <v>1</v>
@@ -25178,8 +23106,14 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>13710</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -25218,7 +23152,11 @@
       <c r="K650" t="n">
         <v>13710</v>
       </c>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -25252,16 +23190,12 @@
         <v>0</v>
       </c>
       <c r="J651" t="n">
-        <v>13780</v>
+        <v>13710</v>
       </c>
       <c r="K651" t="n">
         <v>13710</v>
       </c>
-      <c r="L651" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L651" t="inlineStr"/>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -25295,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="J652" t="n">
-        <v>13820</v>
+        <v>13780</v>
       </c>
       <c r="K652" t="n">
         <v>13710</v>
@@ -25338,143 +23272,137 @@
         <v>0</v>
       </c>
       <c r="J653" t="n">
-        <v>13810</v>
+        <v>13830</v>
       </c>
       <c r="K653" t="n">
         <v>13710</v>
       </c>
       <c r="L653" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>13890</v>
+      </c>
+      <c r="C654" t="n">
+        <v>13890</v>
+      </c>
+      <c r="D654" t="n">
+        <v>13890</v>
+      </c>
+      <c r="E654" t="n">
+        <v>13890</v>
+      </c>
+      <c r="F654" t="n">
+        <v>3.2901</v>
+      </c>
+      <c r="G654" t="n">
+        <v>13895</v>
+      </c>
+      <c r="H654" t="n">
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0</v>
+      </c>
+      <c r="J654" t="n">
+        <v>13900</v>
+      </c>
+      <c r="K654" t="n">
+        <v>13900</v>
+      </c>
+      <c r="L654" t="inlineStr"/>
+      <c r="M654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>13890</v>
+      </c>
+      <c r="C655" t="n">
+        <v>13890</v>
+      </c>
+      <c r="D655" t="n">
+        <v>13890</v>
+      </c>
+      <c r="E655" t="n">
+        <v>13890</v>
+      </c>
+      <c r="F655" t="n">
+        <v>10.0894</v>
+      </c>
+      <c r="G655" t="n">
+        <v>13890</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>13900</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>13930</v>
+      </c>
+      <c r="C656" t="n">
+        <v>13830</v>
+      </c>
+      <c r="D656" t="n">
+        <v>13930</v>
+      </c>
+      <c r="E656" t="n">
+        <v>13830</v>
+      </c>
+      <c r="F656" t="n">
+        <v>130.897</v>
+      </c>
+      <c r="G656" t="n">
+        <v>13860</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0</v>
+      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>13900</v>
+      </c>
+      <c r="L656" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M653" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>13890</v>
-      </c>
-      <c r="C654" t="n">
-        <v>13890</v>
-      </c>
-      <c r="D654" t="n">
-        <v>13890</v>
-      </c>
-      <c r="E654" t="n">
-        <v>13890</v>
-      </c>
-      <c r="F654" t="n">
-        <v>3.2901</v>
-      </c>
-      <c r="G654" t="n">
-        <v>13895</v>
-      </c>
-      <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>0</v>
-      </c>
-      <c r="J654" t="n">
-        <v>13890</v>
-      </c>
-      <c r="K654" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M654" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>13890</v>
-      </c>
-      <c r="C655" t="n">
-        <v>13890</v>
-      </c>
-      <c r="D655" t="n">
-        <v>13890</v>
-      </c>
-      <c r="E655" t="n">
-        <v>13890</v>
-      </c>
-      <c r="F655" t="n">
-        <v>10.0894</v>
-      </c>
-      <c r="G655" t="n">
-        <v>13890</v>
-      </c>
-      <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>0</v>
-      </c>
-      <c r="J655" t="n">
-        <v>13890</v>
-      </c>
-      <c r="K655" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M655" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>13930</v>
-      </c>
-      <c r="C656" t="n">
-        <v>13830</v>
-      </c>
-      <c r="D656" t="n">
-        <v>13930</v>
-      </c>
-      <c r="E656" t="n">
-        <v>13830</v>
-      </c>
-      <c r="F656" t="n">
-        <v>130.897</v>
-      </c>
-      <c r="G656" t="n">
-        <v>13860</v>
-      </c>
-      <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="n">
-        <v>0</v>
-      </c>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -25509,7 +23437,7 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L657" t="inlineStr">
         <is>
@@ -25550,7 +23478,7 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L658" t="inlineStr">
         <is>
@@ -25591,7 +23519,7 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L659" t="inlineStr">
         <is>
@@ -25632,7 +23560,7 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L660" t="inlineStr">
         <is>
@@ -25673,7 +23601,7 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L661" t="inlineStr">
         <is>
@@ -25714,7 +23642,7 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L662" t="inlineStr">
         <is>
@@ -25755,7 +23683,7 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L663" t="inlineStr">
         <is>
@@ -25796,7 +23724,7 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L664" t="inlineStr">
         <is>
@@ -25837,7 +23765,7 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L665" t="inlineStr">
         <is>
@@ -25878,7 +23806,7 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L666" t="inlineStr">
         <is>
@@ -25919,7 +23847,7 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L667" t="inlineStr">
         <is>
@@ -25960,7 +23888,7 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L668" t="inlineStr">
         <is>
@@ -25997,19 +23925,19 @@
         <v>0</v>
       </c>
       <c r="I669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="n">
-        <v>13710</v>
+        <v>13900</v>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>1</v>
+        <v>1.040323741007194</v>
       </c>
     </row>
     <row r="670">
@@ -26038,17 +23966,11 @@
         <v>0</v>
       </c>
       <c r="I670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="inlineStr"/>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -26082,14 +24004,8 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="inlineStr"/>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -26123,14 +24039,8 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="inlineStr"/>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -26164,14 +24074,8 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="inlineStr"/>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -26205,14 +24109,8 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="inlineStr"/>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -26246,14 +24144,8 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="inlineStr"/>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -26287,14 +24179,8 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="n">
-        <v>13710</v>
-      </c>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="inlineStr"/>
       <c r="M676" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-21 BackTest REP.xlsx
+++ b/BackTest/2019-11-21 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4254.803117581894</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>4252.142117581894</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13860</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13860</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13730</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13860</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>4369.647817581894</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13860</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>3837.025717581894</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13850</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>3892.664417581894</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13730</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>3925.313417581894</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13740</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>3962.255817581894</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13750</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>3970.781417581893</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13760</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>3970.881417581893</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13770</v>
+      </c>
+      <c r="J12" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>3954.499517581894</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13800</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +934,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +973,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1012,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1051,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1090,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1129,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1168,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1207,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1246,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1285,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,15 +1321,17 @@
         <v>4117.500417581893</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>13740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>13740</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>13860</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1218,11 +1364,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1253,17 +1399,15 @@
         <v>4124.541217581893</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1294,13 +1438,11 @@
         <v>4082.659717581893</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1335,13 +1477,11 @@
         <v>4079.879717581893</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1376,13 +1516,11 @@
         <v>4080.226917581893</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>13720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1417,13 +1555,11 @@
         <v>4017.331217581893</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>13770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1458,13 +1594,13 @@
         <v>4017.331217581893</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>13670</v>
       </c>
       <c r="J31" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1499,13 +1635,13 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>13670</v>
       </c>
       <c r="J32" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1540,13 +1676,13 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>13760</v>
       </c>
       <c r="J33" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1581,13 +1717,11 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1622,13 +1756,11 @@
         <v>4167.752417581893</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>13760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1663,13 +1795,11 @@
         <v>4635.389117581893</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1708,7 +1838,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1747,7 +1877,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1786,7 +1916,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1825,7 +1955,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1864,7 +1994,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1903,7 +2033,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1942,7 +2072,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1981,7 +2111,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2020,7 +2150,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2059,7 +2189,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2098,7 +2228,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2137,7 +2267,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2176,7 +2306,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2215,7 +2345,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2254,7 +2384,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2293,7 +2423,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2332,7 +2462,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2367,13 +2497,11 @@
         <v>4803.573717581893</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>13790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2412,7 +2540,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2447,13 +2575,11 @@
         <v>5025.183717581893</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>13830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2492,7 +2618,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2527,13 +2653,11 @@
         <v>4892.352517581893</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2568,13 +2692,11 @@
         <v>4884.825117581893</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2609,13 +2731,11 @@
         <v>5046.435517581893</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2650,13 +2770,11 @@
         <v>5046.435517581893</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2691,13 +2809,11 @@
         <v>5023.575717581893</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2732,13 +2848,11 @@
         <v>5034.409817581893</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2773,13 +2887,11 @@
         <v>5034.409817581893</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2814,13 +2926,11 @@
         <v>5034.409817581893</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2855,13 +2965,11 @@
         <v>5034.409817581893</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2896,13 +3004,11 @@
         <v>4975.053217581893</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2941,7 +3047,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2976,13 +3082,11 @@
         <v>4974.758317581893</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>13760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3021,7 +3125,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3060,7 +3164,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3095,13 +3199,11 @@
         <v>5245.134317581893</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3140,7 +3242,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3175,13 +3277,11 @@
         <v>5380.778117581893</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3216,13 +3316,11 @@
         <v>5121.367917581892</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>13860</v>
-      </c>
-      <c r="J75" t="n">
-        <v>13740</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3257,13 +3355,11 @@
         <v>5261.128917581893</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3298,13 +3394,11 @@
         <v>5262.359217581893</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>13900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3343,7 +3437,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3378,13 +3472,11 @@
         <v>5239.380917581892</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3419,13 +3511,11 @@
         <v>5239.380917581892</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3464,7 +3554,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3503,7 +3593,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3542,7 +3632,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3581,7 +3671,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3620,7 +3710,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3659,7 +3749,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3698,7 +3788,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3737,7 +3827,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3776,7 +3866,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3811,23 +3901,21 @@
         <v>8348.268137806614</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>13740</v>
+        <v>13860</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.050312954876274</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.015373352855051</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3852,11 +3940,17 @@
         <v>7631.294137806613</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3979,17 @@
         <v>7411.575637806613</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3918,11 +4018,17 @@
         <v>7443.306937806614</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +4057,17 @@
         <v>7369.777837806614</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +4096,17 @@
         <v>8134.408537806614</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4017,11 +4135,17 @@
         <v>8822.886825621454</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4050,11 +4174,17 @@
         <v>8744.366225621454</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4083,11 +4213,17 @@
         <v>7918.042125621454</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +4252,17 @@
         <v>9495.356125621454</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4149,11 +4291,17 @@
         <v>9019.615425621454</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4182,11 +4330,17 @@
         <v>9019.615425621454</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4215,11 +4369,17 @@
         <v>9144.116957705923</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4248,11 +4408,17 @@
         <v>9545.969457705924</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4284,8 +4450,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4317,8 +4489,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4347,11 +4525,17 @@
         <v>10223.11745661303</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4380,11 +4564,17 @@
         <v>10025.84895661303</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4413,11 +4603,17 @@
         <v>10105.28595661303</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4446,15 +4642,23 @@
         <v>9507.600456613027</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>1.055606060606061</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.009468317552804</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4479,7 +4683,7 @@
         <v>9594.331602092292</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4512,7 +4716,7 @@
         <v>9348.673602092293</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4545,7 +4749,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4578,7 +4782,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4611,7 +4815,7 @@
         <v>7900.031402092292</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4644,7 +4848,7 @@
         <v>7132.858006903288</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4677,7 +4881,7 @@
         <v>7057.369406903288</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4710,7 +4914,7 @@
         <v>6871.655206903288</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4743,7 +4947,7 @@
         <v>6283.752906903288</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4776,7 +4980,7 @@
         <v>6906.548406903288</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4809,7 +5013,7 @@
         <v>6376.26433909841</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4842,7 +5046,7 @@
         <v>6593.31283909841</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4875,7 +5079,7 @@
         <v>6511.45303909841</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4908,7 +5112,7 @@
         <v>6511.45303909841</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4941,7 +5145,7 @@
         <v>6516.78993909841</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4974,7 +5178,7 @@
         <v>6614.450476394943</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5007,7 +5211,7 @@
         <v>6609.292676394943</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5040,7 +5244,7 @@
         <v>6940.520476394942</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5073,7 +5277,7 @@
         <v>7371.953276394942</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5106,7 +5310,7 @@
         <v>7371.953276394942</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5139,7 +5343,7 @@
         <v>7350.157176394942</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5172,7 +5376,7 @@
         <v>7876.196476394943</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5205,7 +5409,7 @@
         <v>7896.732976394943</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5238,7 +5442,7 @@
         <v>7845.653176394942</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5271,7 +5475,7 @@
         <v>7939.459376394942</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5304,7 +5508,7 @@
         <v>7880.517376394942</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5370,7 +5574,7 @@
         <v>7960.084876394943</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5700,7 +5904,7 @@
         <v>5926.249276394943</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5733,7 +5937,7 @@
         <v>6074.612676394943</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5766,7 +5970,7 @@
         <v>5860.977676394943</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5832,7 +6036,7 @@
         <v>5445.996976394943</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -8736,17 +8940,11 @@
         <v>3778.115661221559</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>14040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8779,11 +8977,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8816,11 +9010,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8849,17 +9039,11 @@
         <v>3811.463161221558</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>14030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8892,11 +9076,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8929,11 +9109,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8966,11 +9142,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +9175,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9036,17 +9204,11 @@
         <v>4119.887661221558</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>14060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9079,11 +9241,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9116,11 +9274,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9153,11 +9307,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9186,16 +9336,14 @@
         <v>4453.522961221558</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
       <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
@@ -9221,7 +9369,7 @@
         <v>4465.167761221558</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9254,7 +9402,7 @@
         <v>4465.203661221558</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9287,7 +9435,7 @@
         <v>4465.203661221558</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9320,7 +9468,7 @@
         <v>4465.203661221558</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9353,7 +9501,7 @@
         <v>4465.412561221558</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9386,7 +9534,7 @@
         <v>4361.655961221558</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9419,7 +9567,7 @@
         <v>5425.013461221558</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9452,7 +9600,7 @@
         <v>5425.050361221558</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9485,7 +9633,7 @@
         <v>5288.388361221558</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9518,7 +9666,7 @@
         <v>5384.866061221558</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9551,7 +9699,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9584,7 +9732,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9617,7 +9765,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9650,7 +9798,7 @@
         <v>5456.546961221558</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9683,7 +9831,7 @@
         <v>5485.484061221558</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9716,7 +9864,7 @@
         <v>5181.227861221559</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9749,7 +9897,7 @@
         <v>5287.658661221559</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9782,7 +9930,7 @@
         <v>5227.192061221559</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9815,7 +9963,7 @@
         <v>5276.692061221559</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9848,7 +9996,7 @@
         <v>5276.692061221559</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9881,7 +10029,7 @@
         <v>5174.859061221559</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9914,7 +10062,7 @@
         <v>5174.859061221559</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9947,7 +10095,7 @@
         <v>5215.631461221559</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9980,7 +10128,7 @@
         <v>5208.734961221559</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10079,7 +10227,7 @@
         <v>5091.522261221559</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -13181,14 +13329,10 @@
         <v>5495.596277675435</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>13930</v>
-      </c>
-      <c r="J372" t="n">
-        <v>13930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
@@ -13218,19 +13362,11 @@
         <v>5702.443777675435</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>13930</v>
-      </c>
-      <c r="J373" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13259,19 +13395,11 @@
         <v>5703.443777675435</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>13940</v>
-      </c>
-      <c r="J374" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13303,14 +13431,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13342,14 +13464,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13378,19 +13494,11 @@
         <v>5721.132577675435</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>13980</v>
-      </c>
-      <c r="J377" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13422,14 +13530,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13461,14 +13563,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13497,17 +13593,11 @@
         <v>5389.210852300167</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13536,17 +13626,11 @@
         <v>5420.567252300167</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13575,17 +13659,11 @@
         <v>4709.603826924898</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13614,17 +13692,11 @@
         <v>4830.697926924899</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13653,19 +13725,13 @@
         <v>4861.196726924899</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>13930</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
-        <v>1.000025125628141</v>
+        <v>1</v>
       </c>
       <c r="M384" t="inlineStr"/>
     </row>
@@ -13692,17 +13758,11 @@
         <v>4861.196726924899</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>14000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13731,17 +13791,11 @@
         <v>4861.196726924899</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>14000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13770,17 +13824,11 @@
         <v>4861.016726924899</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>14000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13809,17 +13857,11 @@
         <v>5030.596326924899</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>13950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13848,17 +13890,11 @@
         <v>4956.652926924899</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>14000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13887,17 +13923,11 @@
         <v>5021.813526924899</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>13990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13926,17 +13956,11 @@
         <v>5021.813526924899</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>14000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13965,17 +13989,11 @@
         <v>5021.813526924899</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>14000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14004,17 +14022,11 @@
         <v>5057.801026924899</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>14000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14043,17 +14055,11 @@
         <v>5057.801026924899</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>14010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14082,17 +14088,11 @@
         <v>5080.601026924899</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>14010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14125,11 +14125,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14158,16 +14154,14 @@
         <v>5055.144750066554</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
       <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -14193,7 +14187,7 @@
         <v>5293.262599374033</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14226,7 +14220,7 @@
         <v>5008.030671396194</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14259,7 +14253,7 @@
         <v>4780.528771396193</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14292,7 +14286,7 @@
         <v>4647.750871396193</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14325,7 +14319,7 @@
         <v>4782.508671396194</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14358,7 +14352,7 @@
         <v>5838.157471396194</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14391,7 +14385,7 @@
         <v>5665.338471396193</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14424,7 +14418,7 @@
         <v>5920.197671396193</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14490,7 +14484,7 @@
         <v>5517.164371396193</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14688,7 +14682,7 @@
         <v>5817.565871396193</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14721,7 +14715,7 @@
         <v>5879.815471396193</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14754,7 +14748,7 @@
         <v>5776.570271396193</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16371,7 +16365,7 @@
         <v>3679.573943088939</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16899,11 +16893,17 @@
         <v>3014.414708318825</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>13770</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16936,7 +16936,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16969,7 +16973,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17002,7 +17010,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17035,7 +17047,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17068,7 +17084,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17097,15 +17117,13 @@
         <v>3032.044108318825</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L486" t="n">
@@ -17136,11 +17154,9 @@
         <v>3016.588308318825</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>13830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -17175,7 +17191,7 @@
         <v>3383.436408318825</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>13710</v>
@@ -17214,9 +17230,11 @@
         <v>3337.980508318825</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>13830</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -17251,9 +17269,11 @@
         <v>3345.249808318825</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>13730</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -17473,9 +17493,11 @@
         <v>2916.659508318824</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>13720</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17547,11 +17569,9 @@
         <v>2929.959508318825</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>13810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17808,9 +17828,11 @@
         <v>2931.999208318824</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>13730</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17845,9 +17867,11 @@
         <v>2998.544708318825</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>13730</v>
+      </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17919,9 +17943,11 @@
         <v>2930.779908318824</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>13740</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17956,9 +17982,11 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>13710</v>
+      </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -18548,11 +18576,9 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>13820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18587,11 +18613,9 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
-      </c>
-      <c r="I526" t="n">
-        <v>13820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18626,11 +18650,9 @@
         <v>2880.785688781922</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="n">
-        <v>13820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18665,11 +18687,9 @@
         <v>2880.785688781922</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="n">
-        <v>13850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18704,11 +18724,9 @@
         <v>2856.071288781922</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="n">
-        <v>13850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18743,7 +18761,7 @@
         <v>2898.525088781922</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>13810</v>
@@ -18782,11 +18800,9 @@
         <v>2898.770288781922</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="n">
-        <v>13920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18821,11 +18837,9 @@
         <v>3252.651288781922</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="n">
-        <v>13930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -19711,9 +19725,11 @@
         <v>4113.963088781923</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>14080</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19748,9 +19764,11 @@
         <v>4109.685188781923</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>14060</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19785,9 +19803,11 @@
         <v>4100.755188781923</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>14050</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19822,9 +19842,11 @@
         <v>4085.515388781923</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>14010</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19859,9 +19881,11 @@
         <v>4005.442188781923</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>14000</v>
+      </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19896,9 +19920,11 @@
         <v>4035.442188781923</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>13970</v>
+      </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19933,9 +19959,11 @@
         <v>4009.545188781923</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>14010</v>
+      </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19970,9 +19998,11 @@
         <v>4042.615688781923</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>13980</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -20007,9 +20037,11 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>13990</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -20044,9 +20076,11 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>13970</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -20081,9 +20115,11 @@
         <v>3916.732188781923</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>13970</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -20118,9 +20154,11 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>13910</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -20155,9 +20193,11 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>14010</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -20192,9 +20232,11 @@
         <v>3919.029988781923</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>14010</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -20229,9 +20271,11 @@
         <v>3714.153488781923</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>13920</v>
+      </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -20266,7 +20310,7 @@
         <v>3703.779188781923</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>13900</v>
@@ -20305,9 +20349,11 @@
         <v>3702.831488781923</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>13820</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -20342,9 +20388,11 @@
         <v>3983.401788781923</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>13790</v>
+      </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -20379,9 +20427,11 @@
         <v>3700.467188781923</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>13810</v>
+      </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -20416,7 +20466,7 @@
         <v>3700.467288781923</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>13800</v>
@@ -20455,7 +20505,7 @@
         <v>3710.426488205139</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>13810</v>
@@ -20494,7 +20544,7 @@
         <v>3707.485288205139</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>13870</v>
@@ -20533,7 +20583,7 @@
         <v>3725.358388205138</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>13860</v>
@@ -20572,7 +20622,7 @@
         <v>3722.243088205139</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>13940</v>
@@ -20611,7 +20661,7 @@
         <v>3734.875188205138</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>13840</v>
@@ -20650,7 +20700,7 @@
         <v>3717.346488205138</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581" t="n">
         <v>13880</v>
@@ -20689,9 +20739,11 @@
         <v>3720.142788205138</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>13770</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20726,9 +20778,11 @@
         <v>3689.045488205139</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>13840</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20763,9 +20817,11 @@
         <v>3692.045488205139</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>13740</v>
+      </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -21910,7 +21966,7 @@
         <v>4651.042188205139</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21947,7 +22003,7 @@
         <v>4633.817888205139</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21984,7 +22040,7 @@
         <v>4633.817888205139</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22021,7 +22077,7 @@
         <v>4730.968088205139</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22058,7 +22114,7 @@
         <v>4731.068088205139</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22095,7 +22151,7 @@
         <v>4743.448488205139</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22132,7 +22188,7 @@
         <v>4739.277288205139</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22206,16 +22262,18 @@
         <v>4738.277288205139</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L623" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
       <c r="M623" t="inlineStr"/>
     </row>
     <row r="624">
@@ -22241,11 +22299,15 @@
         <v>4738.277288205139</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22274,11 +22336,15 @@
         <v>4730.13978820514</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22307,11 +22373,15 @@
         <v>4733.15978820514</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22344,7 +22414,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22377,7 +22451,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22410,7 +22488,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22443,7 +22525,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22476,7 +22562,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22509,7 +22599,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22538,11 +22632,15 @@
         <v>4679.55218820514</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22571,11 +22669,15 @@
         <v>4663.16238820514</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22604,11 +22706,15 @@
         <v>4702.51548820514</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22641,7 +22747,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22670,11 +22780,15 @@
         <v>4624.27338820514</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22707,7 +22821,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22740,7 +22858,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22773,7 +22895,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22806,7 +22932,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22839,7 +22969,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22872,7 +23006,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22905,7 +23043,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22938,7 +23080,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22971,7 +23117,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23004,7 +23154,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23037,7 +23191,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23066,11 +23224,15 @@
         <v>4668.407088205141</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23103,7 +23265,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23136,7 +23302,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23169,7 +23339,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23198,11 +23372,15 @@
         <v>4572.202877312661</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23235,7 +23413,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23268,7 +23450,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23301,7 +23487,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23334,7 +23524,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23367,7 +23561,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23400,7 +23598,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23433,7 +23635,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23466,7 +23672,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23499,7 +23709,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23532,7 +23746,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23565,7 +23783,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23598,7 +23820,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23631,7 +23857,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23664,7 +23894,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23697,7 +23931,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23730,7 +23968,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23763,7 +24005,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23796,7 +24042,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23829,7 +24079,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23862,7 +24116,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23895,7 +24153,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23928,7 +24190,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23961,7 +24227,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23994,7 +24264,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24027,7 +24301,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24060,7 +24338,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24093,7 +24375,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24126,7 +24412,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24159,7 +24449,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24192,7 +24486,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24225,7 +24523,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24258,7 +24560,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24291,7 +24597,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24324,7 +24634,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24357,7 +24671,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24390,7 +24708,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24423,7 +24745,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24456,7 +24782,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24489,7 +24819,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24522,7 +24856,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24555,7 +24893,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24588,7 +24930,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24621,7 +24967,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24654,7 +25004,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24687,7 +25041,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24720,7 +25078,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24753,7 +25115,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24786,7 +25152,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24819,7 +25189,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24848,11 +25222,17 @@
         <v>1299.289677312663</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>13700</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24881,11 +25261,17 @@
         <v>1333.713277312663</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>13690</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24914,11 +25300,17 @@
         <v>1333.713277312663</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>13700</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24947,11 +25339,17 @@
         <v>1487.650477312663</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>13700</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24980,11 +25378,17 @@
         <v>1487.650477312663</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>13710</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25013,11 +25417,17 @@
         <v>1487.650477312663</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>13710</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25046,11 +25456,17 @@
         <v>1487.650477312663</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>13710</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25079,11 +25495,17 @@
         <v>1942.603177312663</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>13710</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25112,11 +25534,17 @@
         <v>2018.174577312663</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>13780</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25145,11 +25573,17 @@
         <v>2031.345077312663</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>13830</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25178,11 +25612,17 @@
         <v>2028.054977312663</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>13900</v>
+      </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25215,7 +25655,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25248,7 +25692,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25281,7 +25729,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25314,7 +25766,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25347,7 +25803,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25380,7 +25840,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25413,7 +25877,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25446,7 +25914,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25479,7 +25951,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25512,7 +25988,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25545,7 +26025,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25578,7 +26062,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25611,7 +26099,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25644,7 +26136,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25673,11 +26169,15 @@
         <v>5012.797287824791</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25706,11 +26206,15 @@
         <v>3374.233387824791</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25739,11 +26243,15 @@
         <v>3101.769745584012</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25772,11 +26280,15 @@
         <v>3501.778545584012</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25809,7 +26321,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25842,7 +26358,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25875,7 +26395,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25904,11 +26428,15 @@
         <v>3924.958345584012</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25941,7 +26469,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25974,7 +26506,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26007,7 +26543,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26036,11 +26576,15 @@
         <v>2833.034545584013</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26073,7 +26617,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26106,7 +26654,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26139,7 +26691,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26172,7 +26728,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26205,7 +26765,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26238,13 +26802,17 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
       <c r="M745" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest REP.xlsx
+++ b/BackTest/2019-11-21 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4254.803117581894</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>4252.142117581894</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13860</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13730</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13860</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>4369.647817581894</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13860</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>3837.025717581894</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13850</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>3892.664417581894</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13730</v>
-      </c>
-      <c r="J8" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>3925.313417581894</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13740</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>3962.255817581894</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13750</v>
-      </c>
-      <c r="J10" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>3970.781417581893</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13760</v>
-      </c>
-      <c r="J11" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>3970.881417581893</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13770</v>
-      </c>
-      <c r="J12" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>3954.499517581894</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13800</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -934,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -973,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1012,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1051,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1090,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1168,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1207,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1285,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1324,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1363,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1402,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1441,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1480,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1519,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1558,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1594,19 +1408,11 @@
         <v>4017.331217581893</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>13670</v>
-      </c>
-      <c r="J31" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1635,19 +1441,11 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>13670</v>
-      </c>
-      <c r="J32" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1676,19 +1474,11 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>13760</v>
-      </c>
-      <c r="J33" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1720,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1759,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1798,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1837,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1876,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1915,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1954,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1993,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2032,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2071,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2110,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2149,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2188,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2227,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2266,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2305,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2344,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2383,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2422,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2461,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2500,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2539,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2578,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2617,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2734,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2773,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2812,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2851,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2890,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2929,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3124,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3163,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3202,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3280,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3358,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3397,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3436,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3475,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3514,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3553,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3592,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3631,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3670,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3709,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3748,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3787,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3826,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3865,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3904,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3940,17 +3388,11 @@
         <v>7631.294137806613</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3979,17 +3421,11 @@
         <v>7411.575637806613</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4018,17 +3454,11 @@
         <v>7443.306937806614</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4057,17 +3487,11 @@
         <v>7369.777837806614</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4099,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4177,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4216,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4255,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4294,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4333,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4372,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4411,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4450,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4489,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4528,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4567,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4606,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4642,23 +3982,15 @@
         <v>9507.600456613027</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>13860</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>1.055606060606061</v>
-      </c>
-      <c r="M109" t="n">
-        <v>1.009468317552804</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4683,7 +4015,7 @@
         <v>9594.331602092292</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4716,7 +4048,7 @@
         <v>9348.673602092293</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4749,7 +4081,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4782,7 +4114,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4815,7 +4147,7 @@
         <v>7900.031402092292</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4848,7 +4180,7 @@
         <v>7132.858006903288</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4881,7 +4213,7 @@
         <v>7057.369406903288</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4914,7 +4246,7 @@
         <v>6871.655206903288</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4947,7 +4279,7 @@
         <v>6283.752906903288</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4980,7 +4312,7 @@
         <v>6906.548406903288</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5013,7 +4345,7 @@
         <v>6376.26433909841</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5046,7 +4378,7 @@
         <v>6593.31283909841</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5244,7 +4576,7 @@
         <v>6940.520476394942</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5277,7 +4609,7 @@
         <v>7371.953276394942</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5310,7 +4642,7 @@
         <v>7371.953276394942</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5343,7 +4675,7 @@
         <v>7350.157176394942</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5376,7 +4708,7 @@
         <v>7876.196476394943</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5409,7 +4741,7 @@
         <v>7896.732976394943</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5442,7 +4774,7 @@
         <v>7845.653176394942</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5475,7 +4807,7 @@
         <v>7939.459376394942</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5508,7 +4840,7 @@
         <v>7880.517376394942</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5574,7 +4906,7 @@
         <v>7960.084876394943</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5904,7 +5236,7 @@
         <v>5926.249276394943</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5937,7 +5269,7 @@
         <v>6074.612676394943</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5970,7 +5302,7 @@
         <v>5860.977676394943</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6036,7 +5368,7 @@
         <v>5445.996976394943</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -9666,7 +8998,7 @@
         <v>5384.866061221558</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9699,7 +9031,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9732,7 +9064,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -14484,7 +13816,7 @@
         <v>5517.164371396193</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14517,7 +13849,7 @@
         <v>5608.378371396193</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14550,7 +13882,7 @@
         <v>5838.582271396193</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14583,7 +13915,7 @@
         <v>5907.043571396193</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15012,7 +14344,7 @@
         <v>4992.409371396194</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15045,7 +14377,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15078,7 +14410,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15111,7 +14443,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15144,7 +14476,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16893,17 +16225,11 @@
         <v>3014.414708318825</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>13770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16936,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16973,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17010,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17047,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17084,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17121,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17158,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17191,17 +16489,11 @@
         <v>3383.436408318825</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>13710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17230,17 +16522,11 @@
         <v>3337.980508318825</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>13830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17269,17 +16555,11 @@
         <v>3345.249808318825</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>13730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17312,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17349,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17386,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17423,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17460,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17493,17 +16753,11 @@
         <v>2916.659508318824</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>13720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17536,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17573,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17610,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17647,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17684,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17721,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17758,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17795,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17828,17 +17050,11 @@
         <v>2931.999208318824</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>13730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17867,17 +17083,11 @@
         <v>2998.544708318825</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>13730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17910,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17943,17 +17149,11 @@
         <v>2930.779908318824</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>13740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17982,17 +17182,11 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>13710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18025,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18062,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18099,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18136,11 +17318,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18173,11 +17351,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18210,11 +17384,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18247,11 +17417,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18284,11 +17450,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18321,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18358,11 +17516,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18395,11 +17549,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18432,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +17615,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18506,11 +17648,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18543,11 +17681,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18580,11 +17714,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18617,11 +17747,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18654,11 +17780,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18691,11 +17813,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18728,11 +17846,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18761,17 +17875,11 @@
         <v>2898.525088781922</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>13810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18804,11 +17912,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18841,11 +17945,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18878,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18915,11 +18011,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18952,11 +18044,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18989,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19026,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19100,11 +18176,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19137,11 +18209,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19174,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19211,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19248,11 +18308,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19285,11 +18341,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19322,11 +18374,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19359,11 +18407,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19396,11 +18440,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19433,11 +18473,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19470,11 +18506,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19507,11 +18539,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19544,11 +18572,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19581,11 +18605,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19618,11 +18638,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19655,11 +18671,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19692,11 +18704,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19725,17 +18733,11 @@
         <v>4113.963088781923</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>14080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19764,17 +18766,11 @@
         <v>4109.685188781923</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>14060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19803,17 +18799,11 @@
         <v>4100.755188781923</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>14050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19842,17 +18832,11 @@
         <v>4085.515388781923</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>14010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19881,17 +18865,11 @@
         <v>4005.442188781923</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>14000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19920,17 +18898,11 @@
         <v>4035.442188781923</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>13970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19959,17 +18931,11 @@
         <v>4009.545188781923</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>14010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19998,17 +18964,11 @@
         <v>4042.615688781923</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>13980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20037,17 +18997,11 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>13990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20076,17 +19030,11 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>13970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20115,17 +19063,11 @@
         <v>3916.732188781923</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>13970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20154,17 +19096,11 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>13910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20193,17 +19129,11 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>14010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20232,17 +19162,11 @@
         <v>3919.029988781923</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>14010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20271,17 +19195,11 @@
         <v>3714.153488781923</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>13920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20310,17 +19228,11 @@
         <v>3703.779188781923</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>13900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20349,17 +19261,11 @@
         <v>3702.831488781923</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>13820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20388,17 +19294,11 @@
         <v>3983.401788781923</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>13790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20427,17 +19327,11 @@
         <v>3700.467188781923</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>13810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20466,17 +19360,11 @@
         <v>3700.467288781923</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>13800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20505,17 +19393,11 @@
         <v>3710.426488205139</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>13810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20544,17 +19426,11 @@
         <v>3707.485288205139</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>13870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20583,17 +19459,11 @@
         <v>3725.358388205138</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>13860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20622,17 +19492,11 @@
         <v>3722.243088205139</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>13940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20661,17 +19525,11 @@
         <v>3734.875188205138</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20700,17 +19558,11 @@
         <v>3717.346488205138</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>13880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20739,17 +19591,11 @@
         <v>3720.142788205138</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>13770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20778,17 +19624,11 @@
         <v>3689.045488205139</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20817,17 +19657,11 @@
         <v>3692.045488205139</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>13740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20860,11 +19694,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20897,11 +19727,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20934,11 +19760,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20971,11 +19793,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21008,11 +19826,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21045,11 +19859,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21082,11 +19892,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21119,11 +19925,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21156,11 +19958,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21193,11 +19991,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21230,11 +20024,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21267,11 +20057,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21304,11 +20090,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21341,11 +20123,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21378,11 +20156,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21415,11 +20189,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21452,11 +20222,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21489,11 +20255,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21526,11 +20288,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21563,11 +20321,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21600,11 +20354,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21637,11 +20387,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21674,11 +20420,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21711,11 +20453,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21748,11 +20486,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21785,11 +20519,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21822,11 +20552,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21859,11 +20585,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21896,11 +20618,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21929,15 +20647,11 @@
         <v>4645.925888205139</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21970,11 +20684,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22007,11 +20717,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22044,11 +20750,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22081,11 +20783,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22118,11 +20816,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22151,15 +20845,11 @@
         <v>4743.448488205139</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22188,15 +20878,11 @@
         <v>4739.277288205139</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22229,11 +20915,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22266,11 +20948,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22303,11 +20981,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22340,11 +21014,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22377,11 +21047,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22414,11 +21080,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22451,11 +21113,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22488,11 +21146,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22525,11 +21179,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22562,11 +21212,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22599,11 +21245,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22636,11 +21278,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22673,11 +21311,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22710,11 +21344,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22747,11 +21377,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22784,11 +21410,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22821,11 +21443,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22854,15 +21472,11 @@
         <v>4624.27338820514</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22895,11 +21509,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22932,11 +21542,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22969,11 +21575,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23006,11 +21608,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23043,11 +21641,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23080,11 +21674,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23117,11 +21707,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23154,11 +21740,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23191,11 +21773,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23228,11 +21806,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23265,11 +21839,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23302,11 +21872,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23339,11 +21905,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23376,11 +21938,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23413,11 +21971,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23450,11 +22004,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23487,11 +22037,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23524,11 +22070,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23561,11 +22103,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23598,11 +22136,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23635,11 +22169,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23672,11 +22202,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23709,11 +22235,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23746,11 +22268,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23783,11 +22301,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23820,11 +22334,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23857,11 +22367,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23894,11 +22400,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23931,11 +22433,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23968,11 +22466,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24005,11 +22499,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24042,11 +22532,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24079,11 +22565,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24116,11 +22598,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24153,11 +22631,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24190,11 +22664,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24227,11 +22697,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24264,11 +22730,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24301,11 +22763,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24338,11 +22796,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24375,11 +22829,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24412,11 +22862,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24449,11 +22895,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24486,11 +22928,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24523,11 +22961,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24560,11 +22994,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24597,11 +23027,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24634,11 +23060,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24671,11 +23093,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24708,11 +23126,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24745,11 +23159,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24782,11 +23192,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24819,11 +23225,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24856,11 +23258,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24893,11 +23291,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24930,11 +23324,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24967,11 +23357,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25004,11 +23390,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25041,11 +23423,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25078,11 +23456,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25115,11 +23489,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25152,11 +23522,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25189,11 +23555,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25230,7 +23592,7 @@
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L703" t="n">
@@ -25762,9 +24124,11 @@
         <v>1998.728577312663</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>13850</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -26813,6 +25177,6 @@
       <c r="M745" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest REP.xlsx
+++ b/BackTest/2019-11-21 BackTest REP.xlsx
@@ -451,7 +451,7 @@
         <v>4254.803117581894</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>4252.142117581894</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13860</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13860</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13730</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13860</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>4369.647817581894</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13860</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>3837.025717581894</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13850</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>3892.664417581894</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13730</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>3925.313417581894</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13740</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>3962.255817581894</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13750</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>3970.781417581893</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13760</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +852,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +891,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +930,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +969,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1008,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1047,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1086,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1125,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1164,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1203,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1242,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1281,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1320,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1359,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1398,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1437,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1476,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1515,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1551,19 @@
         <v>4017.331217581893</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13770</v>
+      </c>
+      <c r="J30" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1592,19 @@
         <v>4017.331217581893</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>13670</v>
+      </c>
+      <c r="J31" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1633,19 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>13670</v>
+      </c>
+      <c r="J32" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1674,19 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13760</v>
+      </c>
+      <c r="J33" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1715,19 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>13760</v>
+      </c>
+      <c r="J34" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1837,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1876,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1954,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1993,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2071,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2149,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2227,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2266,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2305,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2344,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2383,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2422,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2461,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2500,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2539,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2617,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2773,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2851,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2890,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2929,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2968,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +3007,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3046,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3085,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3124,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3163,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3202,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3241,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3280,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3475,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3514,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3553,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3631,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3748,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3787,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3826,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3865,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3904,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3940,17 @@
         <v>7631.294137806613</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3979,17 @@
         <v>7411.575637806613</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +4018,17 @@
         <v>7443.306937806614</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +4057,17 @@
         <v>7369.777837806614</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4138,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4216,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4255,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4372,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4411,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,13 +4447,19 @@
         <v>9466.890956613028</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>1.046226551226551</v>
       </c>
       <c r="M104" t="inlineStr"/>
     </row>
@@ -3850,7 +4486,7 @@
         <v>9749.535856613027</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4519,7 @@
         <v>10223.11745661303</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4552,7 @@
         <v>10025.84895661303</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4585,7 @@
         <v>10105.28595661303</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4618,7 @@
         <v>9507.600456613027</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4651,7 @@
         <v>9594.331602092292</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4684,7 @@
         <v>9348.673602092293</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4717,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4750,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4783,7 @@
         <v>7900.031402092292</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4816,7 @@
         <v>7132.858006903288</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4849,7 @@
         <v>7057.369406903288</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4882,7 @@
         <v>6871.655206903288</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4915,7 @@
         <v>6283.752906903288</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4948,7 @@
         <v>6906.548406903288</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4411,7 +5047,7 @@
         <v>6511.45303909841</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +5080,7 @@
         <v>6511.45303909841</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +5113,7 @@
         <v>6516.78993909841</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +5146,7 @@
         <v>6614.450476394943</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +5179,7 @@
         <v>6609.292676394943</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -8998,7 +9634,7 @@
         <v>5384.866061221558</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9667,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9700,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -13816,7 +14452,7 @@
         <v>5517.164371396193</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +14485,7 @@
         <v>5608.378371396193</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +14518,7 @@
         <v>5838.582271396193</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +14551,7 @@
         <v>5907.043571396193</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14344,7 +14980,7 @@
         <v>4992.409371396194</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +15013,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +15046,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +15079,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +15112,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16225,11 +16861,17 @@
         <v>3014.414708318825</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>13770</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +16904,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +16941,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +16978,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +17015,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +17052,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +17085,17 @@
         <v>3032.044108318825</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>13840</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +17124,17 @@
         <v>3016.588308318825</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>13830</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +17163,17 @@
         <v>3383.436408318825</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>13710</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16522,11 +17202,17 @@
         <v>3337.980508318825</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>13830</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16555,11 +17241,17 @@
         <v>3345.249808318825</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>13730</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +17284,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +17321,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +17358,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +17391,17 @@
         <v>3084.582408318824</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>13750</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16720,11 +17430,17 @@
         <v>2913.582408318824</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>13740</v>
+      </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16753,11 +17469,17 @@
         <v>2916.659508318824</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>13720</v>
+      </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +17512,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +17549,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +17586,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +17619,17 @@
         <v>2943.608608318825</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>13840</v>
+      </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +17658,17 @@
         <v>2943.608608318825</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>13850</v>
+      </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +17697,17 @@
         <v>2936.330908318825</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>13850</v>
+      </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17736,17 @@
         <v>2936.330908318825</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>13750</v>
+      </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17775,17 @@
         <v>2931.999208318824</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>13750</v>
+      </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17814,17 @@
         <v>2931.999208318824</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>13730</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17853,17 @@
         <v>2998.544708318825</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>13730</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +17892,17 @@
         <v>2973.894208318824</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>13820</v>
+      </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +17931,17 @@
         <v>2930.779908318824</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>13740</v>
+      </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17182,11 +17970,17 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>13710</v>
+      </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17215,11 +18009,17 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>13820</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +18048,17 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>13820</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +18087,17 @@
         <v>2963.647808318824</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>13820</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +18126,17 @@
         <v>2963.647808318824</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>13830</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +18165,17 @@
         <v>3026.684608318824</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>13830</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +18204,17 @@
         <v>3039.072708318824</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>13840</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +18243,17 @@
         <v>3039.072708318824</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>13850</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +18282,17 @@
         <v>3009.673508318825</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>13850</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +18321,17 @@
         <v>3009.673508318825</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>13760</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +18360,17 @@
         <v>3009.821988781921</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>13760</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +18399,17 @@
         <v>3008.642088781921</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>13820</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +18438,17 @@
         <v>2870.203688781921</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>13770</v>
+      </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +18477,17 @@
         <v>2875.158788781921</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>13760</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +18516,17 @@
         <v>2875.158788781921</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>13810</v>
+      </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +18555,17 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>13810</v>
+      </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +18594,17 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>13820</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +18633,17 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>13820</v>
+      </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +18672,17 @@
         <v>2880.785688781922</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>13820</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +18711,17 @@
         <v>2880.785688781922</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>13850</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +18750,17 @@
         <v>2856.071288781922</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>13850</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +18789,17 @@
         <v>2898.525088781922</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>13810</v>
+      </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18828,17 @@
         <v>2898.770288781922</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>13920</v>
+      </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18867,17 @@
         <v>3252.651288781922</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>13930</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18906,17 @@
         <v>3022.409788781922</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>14000</v>
+      </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18945,17 @@
         <v>3022.018188781922</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>13990</v>
+      </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18984,17 @@
         <v>3079.098788781921</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>13980</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +19023,17 @@
         <v>3036.848288781921</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>14010</v>
+      </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +19062,17 @@
         <v>3046.218288781921</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>13920</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +19101,17 @@
         <v>3051.584388781921</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>13970</v>
+      </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +19140,17 @@
         <v>3051.584388781921</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>13990</v>
+      </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +19179,17 @@
         <v>3059.967688781921</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>13990</v>
+      </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +19218,17 @@
         <v>3073.267688781922</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>14000</v>
+      </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +19257,17 @@
         <v>3378.337688781922</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>14080</v>
+      </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +19296,17 @@
         <v>3532.266688781922</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>14150</v>
+      </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +19335,17 @@
         <v>3751.160688781922</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>14200</v>
+      </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +19374,17 @@
         <v>3906.497288781922</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>14210</v>
+      </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +19413,17 @@
         <v>3836.523888781922</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>14220</v>
+      </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +19452,17 @@
         <v>3906.803188781922</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>14130</v>
+      </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +19491,17 @@
         <v>3906.803188781922</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>14220</v>
+      </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +19530,17 @@
         <v>4128.252988781922</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>14220</v>
+      </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +19569,17 @@
         <v>4110.216088781922</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>14240</v>
+      </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +19608,17 @@
         <v>4068.362688781922</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>14180</v>
+      </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +19647,17 @@
         <v>4071.388788781922</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>14170</v>
+      </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +19686,17 @@
         <v>4189.210388781922</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>14180</v>
+      </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +19725,17 @@
         <v>4185.076988781922</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>14270</v>
+      </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +19768,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +19801,17 @@
         <v>4113.963088781923</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>14080</v>
+      </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +19840,17 @@
         <v>4109.685188781923</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>14060</v>
+      </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +19879,17 @@
         <v>4100.755188781923</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>14050</v>
+      </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +19918,17 @@
         <v>4085.515388781923</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>14010</v>
+      </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +19957,17 @@
         <v>4005.442188781923</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>14000</v>
+      </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +19996,17 @@
         <v>4035.442188781923</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>13970</v>
+      </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +20035,17 @@
         <v>4009.545188781923</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>14010</v>
+      </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +20074,17 @@
         <v>4042.615688781923</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>13980</v>
+      </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +20113,17 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>13990</v>
+      </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +20152,17 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>13970</v>
+      </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +20191,17 @@
         <v>3916.732188781923</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>13970</v>
+      </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +20230,17 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>13910</v>
+      </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +20269,17 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>14010</v>
+      </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +20308,17 @@
         <v>3919.029988781923</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>14010</v>
+      </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +20347,17 @@
         <v>3714.153488781923</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>13920</v>
+      </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +20386,17 @@
         <v>3703.779188781923</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>13900</v>
+      </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +20425,17 @@
         <v>3702.831488781923</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>13820</v>
+      </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +20464,17 @@
         <v>3983.401788781923</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>13790</v>
+      </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +20503,17 @@
         <v>3700.467188781923</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>13810</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +20542,17 @@
         <v>3700.467288781923</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>13800</v>
+      </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +20581,17 @@
         <v>3710.426488205139</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>13810</v>
+      </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +20620,17 @@
         <v>3707.485288205139</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>13870</v>
+      </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19459,11 +20659,17 @@
         <v>3725.358388205138</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>13860</v>
+      </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19492,11 +20698,17 @@
         <v>3722.243088205139</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>13940</v>
+      </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19525,11 +20737,17 @@
         <v>3734.875188205138</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>13840</v>
+      </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19558,11 +20776,17 @@
         <v>3717.346488205138</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>13880</v>
+      </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +20815,17 @@
         <v>3720.142788205138</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>13770</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +20854,17 @@
         <v>3689.045488205139</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>13840</v>
+      </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,11 +20893,17 @@
         <v>3692.045488205139</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>13740</v>
+      </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +20932,17 @@
         <v>3699.224688205139</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>13900</v>
+      </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +20971,17 @@
         <v>3694.849088205139</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>13960</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +21014,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +21047,17 @@
         <v>3693.053688205139</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>13830</v>
+      </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +21086,17 @@
         <v>3742.037588205139</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>13910</v>
+      </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +21125,17 @@
         <v>3777.698388205139</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>13960</v>
+      </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +21164,17 @@
         <v>3717.698388205139</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>13970</v>
+      </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +21203,17 @@
         <v>3717.798388205139</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>13960</v>
+      </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +21242,17 @@
         <v>3718.098388205139</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>13980</v>
+      </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +21285,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +21322,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +21355,17 @@
         <v>3568.754688205139</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>13870</v>
+      </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +21394,17 @@
         <v>3588.788688205139</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>13850</v>
+      </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +21437,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +21470,17 @@
         <v>3649.010888205139</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>13850</v>
+      </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +21509,17 @@
         <v>3556.761788205139</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>13930</v>
+      </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +21548,17 @@
         <v>3553.041588205139</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>13860</v>
+      </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +21587,17 @@
         <v>3568.420488205139</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>13840</v>
+      </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +21630,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +21667,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +21704,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +21741,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +21778,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +21815,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +21852,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +21889,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +21926,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +21963,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +22000,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +22033,15 @@
         <v>4645.925888205139</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +22074,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +22111,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +22148,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +22185,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20816,7 +22222,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +22255,15 @@
         <v>4743.448488205139</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +22292,15 @@
         <v>4739.277288205139</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +22333,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +22370,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +22407,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +22444,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +22481,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21080,7 +22518,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +22555,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +22592,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +22629,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +22666,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +22703,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +22740,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +22777,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +22814,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +22851,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +22888,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +22925,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +22958,15 @@
         <v>4624.27338820514</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21509,7 +22999,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +23036,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21575,7 +23073,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21608,7 +23110,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +23147,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +23184,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +23221,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21740,7 +23258,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +23295,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21806,7 +23332,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21839,7 +23369,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21872,7 +23406,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21905,7 +23443,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21938,7 +23480,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21971,7 +23517,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22004,7 +23554,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22037,7 +23591,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22070,7 +23628,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22103,7 +23665,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22136,7 +23702,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22169,7 +23739,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22202,7 +23776,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22235,7 +23813,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22268,7 +23850,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22301,7 +23887,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +23924,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22367,7 +23961,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22400,7 +23998,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22433,7 +24035,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22466,7 +24072,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22499,7 +24109,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22532,7 +24146,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22565,7 +24183,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22598,7 +24220,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22631,7 +24257,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22664,7 +24294,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22697,7 +24331,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22730,7 +24368,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22763,7 +24405,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22796,7 +24442,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22829,7 +24479,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22862,7 +24516,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22895,7 +24553,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22928,7 +24590,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22961,7 +24627,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22994,7 +24664,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23027,7 +24701,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23060,7 +24738,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23093,7 +24775,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23126,7 +24812,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23155,11 +24845,17 @@
         <v>2859.197677312663</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>13940</v>
+      </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23188,11 +24884,17 @@
         <v>2813.439877312663</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>13970</v>
+      </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23221,11 +24923,17 @@
         <v>2850.579877312663</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>13950</v>
+      </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +24962,17 @@
         <v>2850.579877312663</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>13960</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +25001,17 @@
         <v>2850.579877312663</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>13960</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +25040,17 @@
         <v>2910.579877312663</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>13960</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +25079,17 @@
         <v>2909.774277312663</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>13990</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +25118,17 @@
         <v>2970.467877312663</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>13970</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23423,7 +25161,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23456,7 +25198,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23489,7 +25235,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +25268,17 @@
         <v>1605.597677312663</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>13740</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +25307,17 @@
         <v>1580.581777312663</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>13710</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23592,7 +25354,7 @@
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L703" t="n">
@@ -24013,9 +25775,11 @@
         <v>2028.054977312663</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>13890</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24050,9 +25814,11 @@
         <v>1897.157977312663</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>13890</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24087,9 +25853,11 @@
         <v>1972.767977312663</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>13830</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24163,9 +25931,11 @@
         <v>1555.197877312663</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>13920</v>
+      </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -24200,9 +25970,11 @@
         <v>1567.230777312663</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>13830</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24237,9 +26009,11 @@
         <v>1227.670477312663</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>13910</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24274,9 +26048,11 @@
         <v>1309.966877312663</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>13890</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24311,9 +26087,11 @@
         <v>1644.640077312663</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>14040</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24348,9 +26126,11 @@
         <v>998.6102773126629</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>14170</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24385,9 +26165,11 @@
         <v>942.307077312663</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>14160</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24422,9 +26204,11 @@
         <v>946.5087773126629</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>14110</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -24459,9 +26243,11 @@
         <v>4787.053677312662</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>14120</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
